--- a/metadata/EXPERIMENT_TIMESERIES_2016.xlsx
+++ b/metadata/EXPERIMENT_TIMESERIES_2016.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16140" yWindow="1580" windowWidth="21400" windowHeight="16440"/>
+    <workbookView xWindow="12200" yWindow="1580" windowWidth="21400" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="53">
   <si>
     <t>GENOTYPE</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>120m</t>
+  </si>
+  <si>
+    <t>30C</t>
   </si>
 </sst>
 </file>
@@ -548,7 +551,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -603,13 +606,13 @@
         <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>34</v>
@@ -629,13 +632,13 @@
         <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>34</v>
@@ -655,13 +658,13 @@
         <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>34</v>
